--- a/Symphony/2021/April/All Details/15.04.2021/MC Bank Statement March-2021.xlsx
+++ b/Symphony/2021/April/All Details/15.04.2021/MC Bank Statement March-2021.xlsx
@@ -82,6 +82,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>LENOVO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Savlon+Spay</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -145,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="199">
   <si>
     <t>Date</t>
   </si>
@@ -735,10 +759,13 @@
     <t xml:space="preserve">N=Sohag Mobile </t>
   </si>
   <si>
-    <t>Date: 14.04.2021</t>
+    <t>14.04.2021</t>
   </si>
   <si>
-    <t>14.04.2021</t>
+    <t>14.06.2021</t>
+  </si>
+  <si>
+    <t>Date: 15.04.2021</t>
   </si>
 </sst>
 </file>
@@ -2807,43 +2834,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3015,7 +3042,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3027,7 +3054,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3050,14 +3077,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3094,7 +3121,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3106,7 +3133,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3129,14 +3156,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3224,7 +3251,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3263,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3259,14 +3286,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -4716,7 +4743,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5017,12 +5044,18 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="293"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="37">
+        <v>60000</v>
+      </c>
+      <c r="D18" s="37">
+        <v>0</v>
+      </c>
       <c r="E18" s="39">
         <f>E17+C18-D18</f>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="41"/>
@@ -5035,7 +5068,7 @@
       <c r="D19" s="37"/>
       <c r="E19" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="41"/>
@@ -5048,7 +5081,7 @@
       <c r="D20" s="37"/>
       <c r="E20" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="41"/>
@@ -5061,7 +5094,7 @@
       <c r="D21" s="37"/>
       <c r="E21" s="39">
         <f>E20+C21-D21</f>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F21" s="30"/>
       <c r="G21" s="2"/>
@@ -5074,7 +5107,7 @@
       <c r="D22" s="37"/>
       <c r="E22" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="2"/>
@@ -5087,7 +5120,7 @@
       <c r="D23" s="37"/>
       <c r="E23" s="39">
         <f>E22+C23-D23</f>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="2"/>
@@ -5100,7 +5133,7 @@
       <c r="D24" s="37"/>
       <c r="E24" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="2"/>
@@ -5113,7 +5146,7 @@
       <c r="D25" s="37"/>
       <c r="E25" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="2"/>
@@ -5126,7 +5159,7 @@
       <c r="D26" s="37"/>
       <c r="E26" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="2"/>
@@ -5139,7 +5172,7 @@
       <c r="D27" s="37"/>
       <c r="E27" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="2"/>
@@ -5152,7 +5185,7 @@
       <c r="D28" s="37"/>
       <c r="E28" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="2"/>
@@ -5165,7 +5198,7 @@
       <c r="D29" s="37"/>
       <c r="E29" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="2"/>
@@ -5178,7 +5211,7 @@
       <c r="D30" s="37"/>
       <c r="E30" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="2"/>
@@ -5191,7 +5224,7 @@
       <c r="D31" s="37"/>
       <c r="E31" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F31" s="30"/>
       <c r="G31" s="2"/>
@@ -5204,7 +5237,7 @@
       <c r="D32" s="37"/>
       <c r="E32" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="2"/>
@@ -5217,7 +5250,7 @@
       <c r="D33" s="40"/>
       <c r="E33" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F33" s="30"/>
       <c r="G33" s="2"/>
@@ -5230,7 +5263,7 @@
       <c r="D34" s="37"/>
       <c r="E34" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="2"/>
@@ -5243,7 +5276,7 @@
       <c r="D35" s="37"/>
       <c r="E35" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="2"/>
@@ -5256,7 +5289,7 @@
       <c r="D36" s="37"/>
       <c r="E36" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="2"/>
@@ -5269,7 +5302,7 @@
       <c r="D37" s="37"/>
       <c r="E37" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="2"/>
@@ -5282,7 +5315,7 @@
       <c r="D38" s="37"/>
       <c r="E38" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="2"/>
@@ -5295,7 +5328,7 @@
       <c r="D39" s="37"/>
       <c r="E39" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="2"/>
@@ -5308,7 +5341,7 @@
       <c r="D40" s="37"/>
       <c r="E40" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="2"/>
@@ -5321,7 +5354,7 @@
       <c r="D41" s="37"/>
       <c r="E41" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F41" s="30"/>
       <c r="G41" s="2"/>
@@ -5334,7 +5367,7 @@
       <c r="D42" s="37"/>
       <c r="E42" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="2"/>
@@ -5347,7 +5380,7 @@
       <c r="D43" s="37"/>
       <c r="E43" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F43" s="30"/>
       <c r="G43" s="2"/>
@@ -5360,7 +5393,7 @@
       <c r="D44" s="37"/>
       <c r="E44" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="2"/>
@@ -5373,7 +5406,7 @@
       <c r="D45" s="37"/>
       <c r="E45" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F45" s="30"/>
       <c r="G45" s="2"/>
@@ -5386,7 +5419,7 @@
       <c r="D46" s="37"/>
       <c r="E46" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="2"/>
@@ -5399,7 +5432,7 @@
       <c r="D47" s="37"/>
       <c r="E47" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F47" s="30"/>
       <c r="G47" s="2"/>
@@ -5412,7 +5445,7 @@
       <c r="D48" s="37"/>
       <c r="E48" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="2"/>
@@ -5425,7 +5458,7 @@
       <c r="D49" s="37"/>
       <c r="E49" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F49" s="30"/>
       <c r="G49" s="2"/>
@@ -5438,7 +5471,7 @@
       <c r="D50" s="37"/>
       <c r="E50" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="2"/>
@@ -5451,7 +5484,7 @@
       <c r="D51" s="37"/>
       <c r="E51" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F51" s="30"/>
       <c r="G51" s="2"/>
@@ -5464,7 +5497,7 @@
       <c r="D52" s="37"/>
       <c r="E52" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="2"/>
@@ -5477,7 +5510,7 @@
       <c r="D53" s="37"/>
       <c r="E53" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F53" s="30"/>
       <c r="G53" s="2"/>
@@ -5490,7 +5523,7 @@
       <c r="D54" s="37"/>
       <c r="E54" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="2"/>
@@ -5503,7 +5536,7 @@
       <c r="D55" s="37"/>
       <c r="E55" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="2"/>
@@ -5515,7 +5548,7 @@
       <c r="D56" s="37"/>
       <c r="E56" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="2"/>
@@ -5527,7 +5560,7 @@
       <c r="D57" s="37"/>
       <c r="E57" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="2"/>
@@ -5539,7 +5572,7 @@
       <c r="D58" s="37"/>
       <c r="E58" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="2"/>
@@ -5551,7 +5584,7 @@
       <c r="D59" s="37"/>
       <c r="E59" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="2"/>
@@ -5563,7 +5596,7 @@
       <c r="D60" s="37"/>
       <c r="E60" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F60" s="30"/>
       <c r="G60" s="2"/>
@@ -5575,7 +5608,7 @@
       <c r="D61" s="37"/>
       <c r="E61" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F61" s="30"/>
       <c r="G61" s="2"/>
@@ -5587,7 +5620,7 @@
       <c r="D62" s="37"/>
       <c r="E62" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="2"/>
@@ -5599,7 +5632,7 @@
       <c r="D63" s="37"/>
       <c r="E63" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F63" s="30"/>
       <c r="G63" s="2"/>
@@ -5611,7 +5644,7 @@
       <c r="D64" s="37"/>
       <c r="E64" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="2"/>
@@ -5623,7 +5656,7 @@
       <c r="D65" s="37"/>
       <c r="E65" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F65" s="30"/>
       <c r="G65" s="2"/>
@@ -5635,7 +5668,7 @@
       <c r="D66" s="37"/>
       <c r="E66" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F66" s="30"/>
       <c r="G66" s="2"/>
@@ -5647,7 +5680,7 @@
       <c r="D67" s="37"/>
       <c r="E67" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F67" s="30"/>
       <c r="G67" s="2"/>
@@ -5659,7 +5692,7 @@
       <c r="D68" s="37"/>
       <c r="E68" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="2"/>
@@ -5671,7 +5704,7 @@
       <c r="D69" s="37"/>
       <c r="E69" s="39">
         <f t="shared" si="0"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="2"/>
@@ -5683,7 +5716,7 @@
       <c r="D70" s="37"/>
       <c r="E70" s="39">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F70" s="30"/>
       <c r="G70" s="2"/>
@@ -5695,7 +5728,7 @@
       <c r="D71" s="37"/>
       <c r="E71" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="2"/>
@@ -5707,7 +5740,7 @@
       <c r="D72" s="37"/>
       <c r="E72" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="2"/>
@@ -5719,7 +5752,7 @@
       <c r="D73" s="37"/>
       <c r="E73" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="2"/>
@@ -5731,7 +5764,7 @@
       <c r="D74" s="37"/>
       <c r="E74" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="2"/>
@@ -5743,7 +5776,7 @@
       <c r="D75" s="37"/>
       <c r="E75" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="2"/>
@@ -5755,7 +5788,7 @@
       <c r="D76" s="37"/>
       <c r="E76" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="2"/>
@@ -5767,7 +5800,7 @@
       <c r="D77" s="37"/>
       <c r="E77" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F77" s="30"/>
       <c r="G77" s="2"/>
@@ -5779,7 +5812,7 @@
       <c r="D78" s="37"/>
       <c r="E78" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="2"/>
@@ -5791,7 +5824,7 @@
       <c r="D79" s="37"/>
       <c r="E79" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="2"/>
@@ -5803,7 +5836,7 @@
       <c r="D80" s="37"/>
       <c r="E80" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="2"/>
@@ -5815,7 +5848,7 @@
       <c r="D81" s="37"/>
       <c r="E81" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="2"/>
@@ -5827,7 +5860,7 @@
       <c r="D82" s="37"/>
       <c r="E82" s="39">
         <f t="shared" si="1"/>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="2"/>
@@ -5837,7 +5870,7 @@
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
-        <v>2956041</v>
+        <v>3016041</v>
       </c>
       <c r="D83" s="39">
         <f>SUM(D5:D77)</f>
@@ -5845,7 +5878,7 @@
       </c>
       <c r="E83" s="63">
         <f>E71</f>
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="2"/>
@@ -5885,67 +5918,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
-      <c r="M1" s="298"/>
-      <c r="N1" s="298"/>
-      <c r="O1" s="298"/>
-      <c r="P1" s="298"/>
-      <c r="Q1" s="298"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="296"/>
+      <c r="P1" s="296"/>
+      <c r="Q1" s="296"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="299" t="s">
+      <c r="A2" s="297" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="299"/>
-      <c r="C2" s="299"/>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="299"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
-      <c r="M2" s="299"/>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="297"/>
+      <c r="M2" s="297"/>
+      <c r="N2" s="297"/>
+      <c r="O2" s="297"/>
+      <c r="P2" s="297"/>
+      <c r="Q2" s="297"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="298" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="301"/>
-      <c r="J3" s="301"/>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="302"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="300"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -5954,49 +5987,49 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="301" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="305" t="s">
+      <c r="B4" s="303" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="294" t="s">
+      <c r="C4" s="305" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="305" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="305" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="294" t="s">
+      <c r="F4" s="305" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="294" t="s">
+      <c r="G4" s="305" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="305" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="294" t="s">
+      <c r="I4" s="305" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="294" t="s">
+      <c r="J4" s="305" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="294" t="s">
+      <c r="K4" s="305" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="294" t="s">
+      <c r="L4" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="294" t="s">
+      <c r="M4" s="305" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="294" t="s">
+      <c r="N4" s="305" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="296" t="s">
+      <c r="O4" s="294" t="s">
         <v>98</v>
       </c>
       <c r="P4" s="307" t="s">
@@ -6012,21 +6045,21 @@
       <c r="W4" s="194"/>
     </row>
     <row r="5" spans="1:24" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="304"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="295"/>
-      <c r="N5" s="295"/>
-      <c r="O5" s="297"/>
+      <c r="A5" s="302"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306"/>
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306"/>
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="306"/>
+      <c r="N5" s="306"/>
+      <c r="O5" s="295"/>
       <c r="P5" s="308"/>
       <c r="Q5" s="196" t="s">
         <v>100</v>
@@ -6479,10 +6512,14 @@
       <c r="W16" s="5"/>
     </row>
     <row r="17" spans="1:23" s="21" customFormat="1">
-      <c r="A17" s="200"/>
+      <c r="A17" s="200" t="s">
+        <v>196</v>
+      </c>
       <c r="B17" s="208"/>
       <c r="C17" s="201"/>
-      <c r="D17" s="209"/>
+      <c r="D17" s="209">
+        <v>105</v>
+      </c>
       <c r="E17" s="209"/>
       <c r="F17" s="209"/>
       <c r="G17" s="209"/>
@@ -6497,7 +6534,7 @@
       <c r="P17" s="211"/>
       <c r="Q17" s="205">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="R17" s="206"/>
       <c r="S17" s="7"/>
@@ -6991,7 +7028,7 @@
       </c>
       <c r="D37" s="227">
         <f t="shared" si="1"/>
-        <v>465</v>
+        <v>570</v>
       </c>
       <c r="E37" s="227">
         <f t="shared" si="1"/>
@@ -7043,7 +7080,7 @@
       </c>
       <c r="Q37" s="229">
         <f>SUM(Q6:Q36)</f>
-        <v>17620</v>
+        <v>17725</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -9046,6 +9083,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9062,9 +9102,6 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10122,7 +10159,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="98" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="99">
         <v>0</v>
@@ -20542,7 +20579,7 @@
   <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -20571,7 +20608,7 @@
     </row>
     <row r="2" spans="1:29" ht="23.25">
       <c r="A2" s="327" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B2" s="328"/>
       <c r="C2" s="328"/>
@@ -20645,7 +20682,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="68">
-        <v>4975767.3899999997</v>
+        <v>4952995.5925000003</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="53"/>
@@ -20677,14 +20714,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="67">
-        <v>80336.390000000043</v>
+        <v>80909.592500000028</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="65" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="68">
-        <v>6041</v>
+        <v>66041</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="53"/>
@@ -20723,7 +20760,7 @@
         <v>165</v>
       </c>
       <c r="E6" s="239">
-        <v>60050</v>
+        <v>23290</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="53"/>
@@ -20788,7 +20825,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="67">
-        <v>17620</v>
+        <v>17725</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="65" t="s">
@@ -20867,7 +20904,7 @@
       </c>
       <c r="B10" s="71">
         <f>B5+B6-B8-B9</f>
-        <v>93656.390000000043</v>
+        <v>94124.592500000028</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="65" t="s">
@@ -20977,7 +21014,7 @@
       </c>
       <c r="B13" s="70">
         <f>B4+B5-B8-B9+B11+B6</f>
-        <v>8093656.3899999997</v>
+        <v>8094124.5925000003</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="66" t="s">
@@ -20985,7 +21022,7 @@
       </c>
       <c r="E13" s="69">
         <f>E4+E5+E6+E7+E8+E9+E10+E11+E12</f>
-        <v>8093656.3899999997</v>
+        <v>8094124.5925000003</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="240">
@@ -21742,9 +21779,6 @@
       <c r="B36" s="46"/>
       <c r="C36" s="5"/>
       <c r="D36" s="45"/>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>

--- a/Symphony/2021/April/All Details/15.04.2021/MC Bank Statement March-2021.xlsx
+++ b/Symphony/2021/April/All Details/15.04.2021/MC Bank Statement March-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="200">
   <si>
     <t>Date</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>Date: 15.04.2021</t>
+  </si>
+  <si>
+    <t>15.04.2021</t>
   </si>
 </sst>
 </file>
@@ -2834,6 +2837,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2865,12 +2874,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3042,7 +3045,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3054,7 +3057,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3077,14 +3080,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3121,7 +3124,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3136,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3156,14 +3159,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3251,7 +3254,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3266,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3286,14 +3289,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5918,67 +5921,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
-      <c r="N1" s="296"/>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
+      <c r="O1" s="298"/>
+      <c r="P1" s="298"/>
+      <c r="Q1" s="298"/>
     </row>
     <row r="2" spans="1:24" s="189" customFormat="1" ht="18">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="299" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="297"/>
-      <c r="L2" s="297"/>
-      <c r="M2" s="297"/>
-      <c r="N2" s="297"/>
-      <c r="O2" s="297"/>
-      <c r="P2" s="297"/>
-      <c r="Q2" s="297"/>
+      <c r="B2" s="299"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="299"/>
+      <c r="E2" s="299"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="299"/>
+      <c r="H2" s="299"/>
+      <c r="I2" s="299"/>
+      <c r="J2" s="299"/>
+      <c r="K2" s="299"/>
+      <c r="L2" s="299"/>
+      <c r="M2" s="299"/>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="299"/>
     </row>
     <row r="3" spans="1:24" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="300" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="299"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="300"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="301"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="301"/>
+      <c r="L3" s="301"/>
+      <c r="M3" s="301"/>
+      <c r="N3" s="301"/>
+      <c r="O3" s="301"/>
+      <c r="P3" s="301"/>
+      <c r="Q3" s="302"/>
       <c r="S3" s="105"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -5987,49 +5990,49 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="303" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="305" t="s">
+      <c r="C4" s="294" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="305" t="s">
+      <c r="D4" s="294" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="305" t="s">
+      <c r="E4" s="294" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="305" t="s">
+      <c r="F4" s="294" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="305" t="s">
+      <c r="G4" s="294" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="305" t="s">
+      <c r="H4" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="305" t="s">
+      <c r="I4" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="305" t="s">
+      <c r="J4" s="294" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="305" t="s">
+      <c r="K4" s="294" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="305" t="s">
+      <c r="L4" s="294" t="s">
         <v>95</v>
       </c>
-      <c r="M4" s="305" t="s">
+      <c r="M4" s="294" t="s">
         <v>96</v>
       </c>
-      <c r="N4" s="305" t="s">
+      <c r="N4" s="294" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="294" t="s">
+      <c r="O4" s="296" t="s">
         <v>98</v>
       </c>
       <c r="P4" s="307" t="s">
@@ -6045,21 +6048,21 @@
       <c r="W4" s="194"/>
     </row>
     <row r="5" spans="1:24" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="302"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306"/>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306"/>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="306"/>
-      <c r="N5" s="306"/>
-      <c r="O5" s="295"/>
+      <c r="A5" s="304"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="295"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
+      <c r="M5" s="295"/>
+      <c r="N5" s="295"/>
+      <c r="O5" s="297"/>
       <c r="P5" s="308"/>
       <c r="Q5" s="196" t="s">
         <v>100</v>
@@ -9083,6 +9086,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9099,9 +9105,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9115,8 +9118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10232,13 +10235,21 @@
       <c r="BI15" s="247"/>
     </row>
     <row r="16" spans="1:61">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
+      <c r="A16" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="99">
+        <v>23395</v>
+      </c>
+      <c r="C16" s="99">
+        <v>23090</v>
+      </c>
+      <c r="D16" s="99">
+        <v>105</v>
+      </c>
       <c r="E16" s="99">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23195</v>
       </c>
       <c r="F16" s="107"/>
       <c r="G16" s="111"/>
@@ -11391,23 +11402,23 @@
       </c>
       <c r="B33" s="99">
         <f>SUM(B5:B32)</f>
-        <v>3332855</v>
+        <v>3356250</v>
       </c>
       <c r="C33" s="99">
         <f>SUM(C5:C32)</f>
-        <v>3407413</v>
+        <v>3430503</v>
       </c>
       <c r="D33" s="99">
         <f>SUM(D5:D32)</f>
-        <v>17600</v>
+        <v>17705</v>
       </c>
       <c r="E33" s="99">
         <f>SUM(E5:E32)</f>
-        <v>3425013</v>
+        <v>3448208</v>
       </c>
       <c r="F33" s="107">
         <f>B33-E33</f>
-        <v>-92158</v>
+        <v>-91958</v>
       </c>
       <c r="G33" s="121"/>
       <c r="H33" s="260"/>
@@ -11749,10 +11760,10 @@
         <v>136</v>
       </c>
       <c r="C38" s="269">
-        <v>19625</v>
+        <v>19825</v>
       </c>
       <c r="D38" s="92" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="107"/>
@@ -17834,7 +17845,7 @@
       <c r="B119" s="311"/>
       <c r="C119" s="165">
         <f>SUM(C37:C118)</f>
-        <v>2575196</v>
+        <v>2575396</v>
       </c>
       <c r="D119" s="166"/>
       <c r="F119" s="158"/>
@@ -17985,7 +17996,7 @@
       <c r="B121" s="313"/>
       <c r="C121" s="170">
         <f>C119+L142</f>
-        <v>2575196</v>
+        <v>2575396</v>
       </c>
       <c r="D121" s="171"/>
       <c r="F121" s="153"/>
@@ -20578,7 +20589,7 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
